--- a/Datascraping/output_excel_files_new/Bangalore University_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Bangalore University_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,27 +520,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [4 Years Program(s)]</t>
+          <t>UG [3 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>3895</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,27 +563,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1380</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,42 +606,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>PG [2 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Outside Country@@ -649,7 +692,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Economically Backward@@ -657,7 +700,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -666,7 +709,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -677,7 +720,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -687,7 +730,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -697,7 +740,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -707,180 +750,248 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UG [3 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5664</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12366</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5719</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5575</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4823</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1853</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1761</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3614</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3286</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3243</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2759</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>369</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3793</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1654</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1396</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -888,13 +999,13 @@
 time</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -902,125 +1013,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>872</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>638</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>450000(Four Lakhs-Fifty Thousand only)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>931</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>656</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>450000(Four Lakhs-Fifty Thousand Only)</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1028,53 +1027,54 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>911</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>500000(Five Lakhs-Only)</t>
+          <t>425000(Four lakhs+twenty five thousand+only)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1084,41 +1084,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3079</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>480000(Four lakhs+eighty thousand only)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>515000(Five lakhs+fifteen thousand only)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1385</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1126,111 +1252,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>700000(Seven Lakhs-Only)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>700000(Seven Lakhs-Only)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1238,47 +1266,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>720</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>750000(Seven Lakhs-Fifty Thousand Only)</t>
+          <t>542</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>660000(Six lakhs sixty+thousand only)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1286,37 +1322,112 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>680000(Six lakhs+eighty thousand only)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>778000(Seven lakhs+seventy eight thousand+only)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1324,20 +1435,55 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>No. of first year+students intake in the+year</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No. of first year+students admitted in+the year</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1347,20 +1493,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>620000(Six lakhs+twenty thousand only)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1370,16 +1541,45 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>700000(Seven lakhs+only)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1387,26 +1587,48 @@
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>726000(Seven lakhs+twenty six thousand+only)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1416,24 +1638,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1445,26 +1655,14 @@
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1478,24 +1676,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1507,22 +1697,18 @@
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1536,7 +1722,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1553,24 +1739,20 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2806000 (Twenty Eight Lakhs Six Thousand Only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5949000 (Fifty Nine Lakhs Forty Nine  Thousand Only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3454000 (Thirty Four Lakhs Fifty Four Thousand Only)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1586,25 +1768,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>151271000 (One Thousand Five Hundred Twelve Lakhs-Seventy One Thousand Only )</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>54166000 (Five Hundred Forty One Lakh Sixty Six Thousand-Only)</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>103229000 (One Thousand Thirty Two Lakhs Twenty Nine-Thousand Only)</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1620,22 +1799,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Engineering Workshops</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0 (Zero)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1651,25 +1830,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>66029000 (Sixty Six Lakhs Twenty Nine Thousand Only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>97547000 (Nine Hundred  Seventy Five Lakhs Forty Seven-Thousand Only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>179466000 (Seventeen Thousand Ninety Four Lakhs Sixty Six-Thousand Only )</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1683,24 +1859,20 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1714,22 +1886,14 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1743,12 +1907,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>41141279 (Four crores eleven lakhs forty one thousand two+hundred and seventy nine only)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>27265051 (Two crores seventy two thousand sixty five+thousand fifty one only)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>28560224 (Two crores eighty five lakhs sixty thousand two+hundred and twenty four only)</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1762,25 +1941,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>New Equipment for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1536683000 (Fifteen Thousand Three Sixty Six Lakhs Eighty-Three Thousand Only)</t>
+          <t>19201645 (One crore ninety two lakhs one thousand six+hundred and forty five only)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1885754000 (Eighteen Thousand Eight Hundred Fifty Seven-Lakhs Fifty Four Thousand Only)</t>
+          <t>20351966 (Two crores three lakhs fifty one thousand nine+hundred and sixty six only)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1779738000 (Seventeen Thousand Seven Hundred and Ninety-Seven Lakhs Thirty Eight Thousand Only)</t>
+          <t>46282460 (Four crores sixty two lakhs eighty two thousand four+hundred and sixty only)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1796,27 +1975,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Engineering Workshops</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>493464000 (Four Thousand Nine Hundred Thirty Four Lakhs-Sixty Four Thousand Only )</t>
+          <t>5213526 (Fifty two lakhs thirteen thousand five hundred and+twenty six only)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>524882000 (Five Thousand Two Hundred Forty Eight Lakhs-Eighty  Two Thousand Only )</t>
+          <t>2957455 (Twenty nine lakhs fifty seven thousand four hundred+and fifty five only)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>599756000 (Five Thousand Nine Hundred Ninety Seven Lakhs-Fifty Six Thousand Only)</t>
+          <t>9216465 (Ninety two lakhs sixteen thousand four hundred and+sixty five only)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1832,23 +2009,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6396000 (Sixty Three Lakhs Ninety Six Thousand Only)</t>
+          <t>1161792 (Eleven lakhs sixty one thousand seven hundred and+ninety two only)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4418000 (Forty Four Lakhs Eighteen Thousand Only)</t>
+          <t>3216842 (Thirty two lakhs sixteen thousand eight hundred and+forty two only)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12269000 (One Hundred Twenty Two Lakhs  Sixty Nine-Thousand Only)</t>
+          <t>14963621 (One crore forty nine lakhs sixty three thousand six+hundred and twenty one only)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1864,22 +2043,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>371085797 (Thirty seven crores ten lakhs eighty five thousand+seven hundred and ninety seven only)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>285482988 (Twenty eight crores fifty four lakhs eighty two+thousand nine hundred and eighty eight only)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>410432839 (Forty one crores four lakhs thirty two thousand+eight hundred and thirty nine only)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1895,22 +2078,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1924,24 +2107,20 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Total no. of Funding Agencies</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1957,24 +2136,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>796071221</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>654254081</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>681451895</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1988,25 +2155,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Seventy nine crore sixty lakh seventy one thousand two-hundred and twenty one only</t>
+          <t>1830517594 (One hundred and eighty three crores five lakhs+seventeen thousand five hundred and ninety four only)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sixty five crore forty two lakh fifty four thousand and eighty one-only</t>
+          <t>1455888986 (One hundred and forty five crores fifty eight lakhs+eighty eight thousand nine hundred and eighty six only)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sixty eight crore fourteen lakh fifty one thousand eight hundred-and ninety five only</t>
+          <t>1125244323 (One hundred and twelve crores fifty two lakhs+forty four thousand three hundred and twenty three only)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2022,22 +2189,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>599848252 (Fifty nine crores ninety eight lakhs forty eight+thousand two hundred and fifty two only)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>232413297 (Twenty three crores twenty four lakhs thirteen+thousand two hundred and ninety seven only)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>189121892 (Eighteen crores ninety one lakhs twenty one+thousand eight hundred and ninety two only)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2053,22 +2225,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>16218421 (One crore sixty two lakhs eighteen thousand four+hundred and twenty one only )</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>4225258 (Forty two lakhs twenty five thousand two hundred+and fifty eight only)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>22510546 (Two crores twenty five lakhs ten thousand five+hundred and forty six only)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2084,22 +2259,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2115,22 +2290,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>122228361</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>90941466</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>126137003</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2146,25 +2321,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Twelve Hundred and Twenty Two Lakhs  Twenty Eight-Thousand  Three Hundred and Sixty One Only</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nine  Hundred and Nine   Lakhs Forty One Thousand  Four-Hundred Sixty Six Only</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Twelve  Hundred and Sixty One Lakhs Thirty Seven Thousand-Three Rupees  Only</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2180,16 +2352,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>57603387</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>29074248</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>33287172</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2203,17 +2383,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>Five crore seventy six lakhs three thousand three hundred and+eighty seven only</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Two crores ninety lakhs seventy four thousand two hundred+and forty eight only</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Three crores thirty two lakhs eighty seven thousand one+hundred and seventy two only</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2227,16 +2417,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2250,16 +2448,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>490</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2270,6 +2476,430 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total no. of Client Organizations</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>43519314</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>32688105</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>66051909</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Four crores thirty five lakhs nineteen thousand three hundred+and fourteen only</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Three crores twenty six lakhs eighty eight thousand one+hundred and five only</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Six crores sixty lakhs fifty one thousand nine hundred and nine+only</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Total no. of Participants</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>22862500</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20950000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings in Words</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Two crores twenty eight lakhs sixty two thousand five hundred+only</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Two crores nine lakhs fifty thousand only</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1. Does your institute have a valid NAAC Accreditation?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Valid from</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Valid upto</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CGPA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>06-12-2021</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>05-12-2026</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
